--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>610.9513309391585</v>
+        <v>826.2646334680416</v>
       </c>
       <c r="AB2" t="n">
-        <v>835.9305642614122</v>
+        <v>1130.531723733935</v>
       </c>
       <c r="AC2" t="n">
-        <v>756.150524444218</v>
+        <v>1022.635362732007</v>
       </c>
       <c r="AD2" t="n">
-        <v>610951.3309391586</v>
+        <v>826264.6334680415</v>
       </c>
       <c r="AE2" t="n">
-        <v>835930.5642614122</v>
+        <v>1130531.723733935</v>
       </c>
       <c r="AF2" t="n">
         <v>3.669510192113817e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.76041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>756150.524444218</v>
+        <v>1022635.362732007</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>473.6530176506124</v>
+        <v>639.9905594388299</v>
       </c>
       <c r="AB3" t="n">
-        <v>648.072954845935</v>
+        <v>875.663317815007</v>
       </c>
       <c r="AC3" t="n">
-        <v>586.2217816115431</v>
+        <v>792.0912397639273</v>
       </c>
       <c r="AD3" t="n">
-        <v>473653.0176506124</v>
+        <v>639990.5594388299</v>
       </c>
       <c r="AE3" t="n">
-        <v>648072.954845935</v>
+        <v>875663.3178150069</v>
       </c>
       <c r="AF3" t="n">
         <v>4.612848839185598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>35</v>
+        <v>34.03645833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>586221.781611543</v>
+        <v>792091.2397639273</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>427.3853929174753</v>
+        <v>584.0017332430489</v>
       </c>
       <c r="AB4" t="n">
-        <v>584.7675495025132</v>
+        <v>799.0569357612554</v>
       </c>
       <c r="AC4" t="n">
-        <v>528.958155304403</v>
+        <v>722.7960632956532</v>
       </c>
       <c r="AD4" t="n">
-        <v>427385.3929174753</v>
+        <v>584001.7332430489</v>
       </c>
       <c r="AE4" t="n">
-        <v>584767.5495025133</v>
+        <v>799056.9357612554</v>
       </c>
       <c r="AF4" t="n">
         <v>4.975611126223999e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.53645833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>528958.155304403</v>
+        <v>722796.0632956532</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>407.3573744026185</v>
+        <v>554.1178736501394</v>
       </c>
       <c r="AB5" t="n">
-        <v>557.3643309966687</v>
+        <v>758.168520683398</v>
       </c>
       <c r="AC5" t="n">
-        <v>504.1702615120976</v>
+        <v>685.8099811655756</v>
       </c>
       <c r="AD5" t="n">
-        <v>407357.3744026185</v>
+        <v>554117.8736501393</v>
       </c>
       <c r="AE5" t="n">
-        <v>557364.3309966688</v>
+        <v>758168.520683398</v>
       </c>
       <c r="AF5" t="n">
         <v>5.196016788908737e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>31</v>
+        <v>30.20833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>504170.2615120976</v>
+        <v>685809.9811655756</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>392.3208910101238</v>
+        <v>548.8689004981358</v>
       </c>
       <c r="AB6" t="n">
-        <v>536.790751056228</v>
+        <v>750.9866440484745</v>
       </c>
       <c r="AC6" t="n">
-        <v>485.5601951659718</v>
+        <v>679.3135327568621</v>
       </c>
       <c r="AD6" t="n">
-        <v>392320.8910101238</v>
+        <v>548868.9004981357</v>
       </c>
       <c r="AE6" t="n">
-        <v>536790.7510562281</v>
+        <v>750986.6440484745</v>
       </c>
       <c r="AF6" t="n">
         <v>5.282021404892089e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.71354166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>485560.1951659718</v>
+        <v>679313.5327568621</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>386.6756620944478</v>
+        <v>533.4019959231877</v>
       </c>
       <c r="AB7" t="n">
-        <v>529.0666998038774</v>
+        <v>729.8241428573588</v>
       </c>
       <c r="AC7" t="n">
-        <v>478.5733165243714</v>
+        <v>660.1707509776694</v>
       </c>
       <c r="AD7" t="n">
-        <v>386675.6620944478</v>
+        <v>533401.9959231877</v>
       </c>
       <c r="AE7" t="n">
-        <v>529066.6998038774</v>
+        <v>729824.1428573588</v>
       </c>
       <c r="AF7" t="n">
         <v>5.36416877110464e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>29.27083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>478573.3165243714</v>
+        <v>660170.7509776694</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>385.0739896027543</v>
+        <v>531.8003234314942</v>
       </c>
       <c r="AB8" t="n">
-        <v>526.8752208399391</v>
+        <v>727.6326638934204</v>
       </c>
       <c r="AC8" t="n">
-        <v>476.5909892369913</v>
+        <v>658.1884236902893</v>
       </c>
       <c r="AD8" t="n">
-        <v>385073.9896027543</v>
+        <v>531800.3234314942</v>
       </c>
       <c r="AE8" t="n">
-        <v>526875.2208399391</v>
+        <v>727632.6638934204</v>
       </c>
       <c r="AF8" t="n">
         <v>5.39189275383228e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>29.11458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>476590.9892369913</v>
+        <v>658188.4236902893</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>524.7407948708241</v>
+        <v>718.2161272277203</v>
       </c>
       <c r="AB2" t="n">
-        <v>717.973505472292</v>
+        <v>982.6949907322535</v>
       </c>
       <c r="AC2" t="n">
-        <v>649.4511217921595</v>
+        <v>888.9079600378483</v>
       </c>
       <c r="AD2" t="n">
-        <v>524740.7948708241</v>
+        <v>718216.1272277203</v>
       </c>
       <c r="AE2" t="n">
-        <v>717973.505472292</v>
+        <v>982694.9907322535</v>
       </c>
       <c r="AF2" t="n">
         <v>4.462760871353627e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.48958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>649451.1217921595</v>
+        <v>888907.9600378483</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.8608713378521</v>
+        <v>580.3618760521284</v>
       </c>
       <c r="AB3" t="n">
-        <v>568.9991906512635</v>
+        <v>794.0767225734717</v>
       </c>
       <c r="AC3" t="n">
-        <v>514.6947064908859</v>
+        <v>718.2911546647385</v>
       </c>
       <c r="AD3" t="n">
-        <v>415860.8713378521</v>
+        <v>580361.8760521284</v>
       </c>
       <c r="AE3" t="n">
-        <v>568999.1906512635</v>
+        <v>794076.7225734717</v>
       </c>
       <c r="AF3" t="n">
         <v>5.391807539236385e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.84895833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>514694.7064908859</v>
+        <v>718291.1546647386</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>382.9200959008384</v>
+        <v>537.7405514650067</v>
       </c>
       <c r="AB4" t="n">
-        <v>523.928168453894</v>
+        <v>735.7603459532372</v>
       </c>
       <c r="AC4" t="n">
-        <v>473.9251993944565</v>
+        <v>665.5404111815908</v>
       </c>
       <c r="AD4" t="n">
-        <v>382920.0959008384</v>
+        <v>537740.5514650067</v>
       </c>
       <c r="AE4" t="n">
-        <v>523928.1684538941</v>
+        <v>735760.3459532373</v>
       </c>
       <c r="AF4" t="n">
         <v>5.746662743656964e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>473925.1993944565</v>
+        <v>665540.4111815908</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>375.3600931119004</v>
+        <v>520.466845137037</v>
       </c>
       <c r="AB5" t="n">
-        <v>513.5842391142851</v>
+        <v>712.1256988931697</v>
       </c>
       <c r="AC5" t="n">
-        <v>464.5684801532237</v>
+        <v>644.1614216655004</v>
       </c>
       <c r="AD5" t="n">
-        <v>375360.0931119004</v>
+        <v>520466.845137037</v>
       </c>
       <c r="AE5" t="n">
-        <v>513584.2391142851</v>
+        <v>712125.6988931696</v>
       </c>
       <c r="AF5" t="n">
         <v>5.898866016617882e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.11458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>464568.4801532237</v>
+        <v>644161.4216655004</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>362.3288780559555</v>
+        <v>507.5029498887965</v>
       </c>
       <c r="AB6" t="n">
-        <v>495.7543557781071</v>
+        <v>694.3879254878332</v>
       </c>
       <c r="AC6" t="n">
-        <v>448.440255858252</v>
+        <v>628.1165164588481</v>
       </c>
       <c r="AD6" t="n">
-        <v>362328.8780559555</v>
+        <v>507502.9498887965</v>
       </c>
       <c r="AE6" t="n">
-        <v>495754.3557781071</v>
+        <v>694387.9254878332</v>
       </c>
       <c r="AF6" t="n">
         <v>5.951029270045996e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.85416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>448440.2558582521</v>
+        <v>628116.516458848</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.0318846042628</v>
+        <v>497.2967908924562</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.5067756506427</v>
+        <v>680.4234084850837</v>
       </c>
       <c r="AC2" t="n">
-        <v>441.8843746061104</v>
+        <v>615.4847533595181</v>
       </c>
       <c r="AD2" t="n">
-        <v>357031.8846042628</v>
+        <v>497296.7908924562</v>
       </c>
       <c r="AE2" t="n">
-        <v>488506.7756506428</v>
+        <v>680423.4084850836</v>
       </c>
       <c r="AF2" t="n">
         <v>7.96743234299472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>441884.3746061104</v>
+        <v>615484.7533595181</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>330.6701240068313</v>
+        <v>470.9681846839483</v>
       </c>
       <c r="AB3" t="n">
-        <v>452.4374518024397</v>
+        <v>644.3994479344743</v>
       </c>
       <c r="AC3" t="n">
-        <v>409.257456402366</v>
+        <v>582.8988690439129</v>
       </c>
       <c r="AD3" t="n">
-        <v>330670.1240068313</v>
+        <v>470968.1846839483</v>
       </c>
       <c r="AE3" t="n">
-        <v>452437.4518024398</v>
+        <v>644399.4479344743</v>
       </c>
       <c r="AF3" t="n">
         <v>8.354578918563243e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.69791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>409257.456402366</v>
+        <v>582898.8690439129</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>405.1129838072483</v>
+        <v>566.2825105726085</v>
       </c>
       <c r="AB2" t="n">
-        <v>554.2934567685584</v>
+        <v>774.8127135866254</v>
       </c>
       <c r="AC2" t="n">
-        <v>501.3924672103191</v>
+        <v>700.8656756583905</v>
       </c>
       <c r="AD2" t="n">
-        <v>405112.9838072483</v>
+        <v>566282.5105726086</v>
       </c>
       <c r="AE2" t="n">
-        <v>554293.4567685584</v>
+        <v>774812.7135866254</v>
       </c>
       <c r="AF2" t="n">
         <v>6.346509322134875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.70833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>501392.4672103191</v>
+        <v>700865.6756583905</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>344.3350933649622</v>
+        <v>486.5394798733648</v>
       </c>
       <c r="AB3" t="n">
-        <v>471.1344657341352</v>
+        <v>665.7047809696948</v>
       </c>
       <c r="AC3" t="n">
-        <v>426.1700535658442</v>
+        <v>602.1708509964745</v>
       </c>
       <c r="AD3" t="n">
-        <v>344335.0933649623</v>
+        <v>486539.4798733648</v>
       </c>
       <c r="AE3" t="n">
-        <v>471134.4657341352</v>
+        <v>665704.7809696947</v>
       </c>
       <c r="AF3" t="n">
         <v>7.20795681195265e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.80208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>426170.0535658443</v>
+        <v>602170.8509964745</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.1424000161496</v>
+        <v>484.3467865245521</v>
       </c>
       <c r="AB4" t="n">
-        <v>468.1343259594863</v>
+        <v>662.7046411950458</v>
       </c>
       <c r="AC4" t="n">
-        <v>423.4562429205653</v>
+        <v>599.4570403511955</v>
       </c>
       <c r="AD4" t="n">
-        <v>342142.4000161496</v>
+        <v>484346.7865245521</v>
       </c>
       <c r="AE4" t="n">
-        <v>468134.3259594863</v>
+        <v>662704.6411950458</v>
       </c>
       <c r="AF4" t="n">
         <v>7.277943940300943e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>423456.2429205653</v>
+        <v>599457.0403511955</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.0410812109818</v>
+        <v>469.7082438521542</v>
       </c>
       <c r="AB2" t="n">
-        <v>452.9450118146354</v>
+        <v>642.675541303747</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.7165755993626</v>
+        <v>581.3394896425041</v>
       </c>
       <c r="AD2" t="n">
-        <v>331041.0812109818</v>
+        <v>469708.2438521542</v>
       </c>
       <c r="AE2" t="n">
-        <v>452945.0118146354</v>
+        <v>642675.541303747</v>
       </c>
       <c r="AF2" t="n">
         <v>9.403511037616846e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.19270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>409716.5755993626</v>
+        <v>581339.489642504</v>
       </c>
     </row>
   </sheetData>
@@ -5465,28 +5465,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>544.7312691257425</v>
+        <v>738.8083578757926</v>
       </c>
       <c r="AB2" t="n">
-        <v>745.3253542653529</v>
+        <v>1010.870189170046</v>
       </c>
       <c r="AC2" t="n">
-        <v>674.1925485249715</v>
+        <v>914.3941570808771</v>
       </c>
       <c r="AD2" t="n">
-        <v>544731.2691257425</v>
+        <v>738808.3578757925</v>
       </c>
       <c r="AE2" t="n">
-        <v>745325.3542653528</v>
+        <v>1010870.189170046</v>
       </c>
       <c r="AF2" t="n">
         <v>4.25514061869267e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>674192.5485249715</v>
+        <v>914394.1570808771</v>
       </c>
     </row>
     <row r="3">
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>432.6884940985069</v>
+        <v>597.604631333296</v>
       </c>
       <c r="AB3" t="n">
-        <v>592.0234864947128</v>
+        <v>817.6690210458406</v>
       </c>
       <c r="AC3" t="n">
-        <v>535.5215958538386</v>
+        <v>739.6318372829036</v>
       </c>
       <c r="AD3" t="n">
-        <v>432688.4940985069</v>
+        <v>597604.631333296</v>
       </c>
       <c r="AE3" t="n">
-        <v>592023.4864947128</v>
+        <v>817669.0210458406</v>
       </c>
       <c r="AF3" t="n">
         <v>5.174357045863749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.39583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>535521.5958538386</v>
+        <v>739631.8372829036</v>
       </c>
     </row>
     <row r="4">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>399.5362453998467</v>
+        <v>554.7434539358089</v>
       </c>
       <c r="AB4" t="n">
-        <v>546.6631172512167</v>
+        <v>759.0244672289056</v>
       </c>
       <c r="AC4" t="n">
-        <v>494.4903565872637</v>
+        <v>686.5842373741084</v>
       </c>
       <c r="AD4" t="n">
-        <v>399536.2453998467</v>
+        <v>554743.453935809</v>
       </c>
       <c r="AE4" t="n">
-        <v>546663.1172512167</v>
+        <v>759024.4672289055</v>
       </c>
       <c r="AF4" t="n">
         <v>5.513174918242337e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>494490.3565872637</v>
+        <v>686584.2373741084</v>
       </c>
     </row>
     <row r="5">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>381.8153888200072</v>
+        <v>527.3478340759234</v>
       </c>
       <c r="AB5" t="n">
-        <v>522.4166594896639</v>
+        <v>721.5405715271613</v>
       </c>
       <c r="AC5" t="n">
-        <v>472.5579467243563</v>
+        <v>652.6777520691606</v>
       </c>
       <c r="AD5" t="n">
-        <v>381815.3888200072</v>
+        <v>527347.8340759234</v>
       </c>
       <c r="AE5" t="n">
-        <v>522416.6594896639</v>
+        <v>721540.5715271613</v>
       </c>
       <c r="AF5" t="n">
         <v>5.686541556074798e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.47916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>472557.9467243563</v>
+        <v>652677.7520691607</v>
       </c>
     </row>
     <row r="6">
@@ -5889,28 +5889,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>365.6957914548503</v>
+        <v>511.295556518471</v>
       </c>
       <c r="AB6" t="n">
-        <v>500.3611152282107</v>
+        <v>699.5771371965496</v>
       </c>
       <c r="AC6" t="n">
-        <v>452.6073526520653</v>
+        <v>632.8104770851889</v>
       </c>
       <c r="AD6" t="n">
-        <v>365695.7914548503</v>
+        <v>511295.556518471</v>
       </c>
       <c r="AE6" t="n">
-        <v>500361.1152282107</v>
+        <v>699577.1371965497</v>
       </c>
       <c r="AF6" t="n">
         <v>5.798258142294975e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.90625</v>
       </c>
       <c r="AH6" t="n">
-        <v>452607.3526520653</v>
+        <v>632810.477085189</v>
       </c>
     </row>
     <row r="7">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>366.0857656777444</v>
+        <v>511.6855307413651</v>
       </c>
       <c r="AB7" t="n">
-        <v>500.894695164423</v>
+        <v>700.1107171327618</v>
       </c>
       <c r="AC7" t="n">
-        <v>453.0900084680497</v>
+        <v>633.2931329011732</v>
       </c>
       <c r="AD7" t="n">
-        <v>366085.7656777444</v>
+        <v>511685.5307413651</v>
       </c>
       <c r="AE7" t="n">
-        <v>500894.695164423</v>
+        <v>700110.7171327618</v>
       </c>
       <c r="AF7" t="n">
         <v>5.794976145810396e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.90625</v>
       </c>
       <c r="AH7" t="n">
-        <v>453090.0084680497</v>
+        <v>633293.1329011732</v>
       </c>
     </row>
   </sheetData>
@@ -6292,28 +6292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>326.3716017255547</v>
+        <v>473.335564698049</v>
       </c>
       <c r="AB2" t="n">
-        <v>446.556023979778</v>
+        <v>647.6386017112021</v>
       </c>
       <c r="AC2" t="n">
-        <v>403.9373437964632</v>
+        <v>585.8288825303705</v>
       </c>
       <c r="AD2" t="n">
-        <v>326371.6017255547</v>
+        <v>473335.564698049</v>
       </c>
       <c r="AE2" t="n">
-        <v>446556.023979778</v>
+        <v>647638.6017112021</v>
       </c>
       <c r="AF2" t="n">
         <v>1.008626116861453e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.79166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>403937.3437964632</v>
+        <v>585828.8825303705</v>
       </c>
     </row>
   </sheetData>
@@ -6589,28 +6589,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>463.656615423347</v>
+        <v>636.1471183015367</v>
       </c>
       <c r="AB2" t="n">
-        <v>634.3954363084492</v>
+        <v>870.4045520903065</v>
       </c>
       <c r="AC2" t="n">
-        <v>573.8496262467571</v>
+        <v>787.3343632592682</v>
       </c>
       <c r="AD2" t="n">
-        <v>463656.615423347</v>
+        <v>636147.1183015367</v>
       </c>
       <c r="AE2" t="n">
-        <v>634395.4363084493</v>
+        <v>870404.5520903065</v>
       </c>
       <c r="AF2" t="n">
         <v>5.261226432084181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.49479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>573849.6262467571</v>
+        <v>787334.3632592682</v>
       </c>
     </row>
     <row r="3">
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>385.5202958685583</v>
+        <v>538.7997457607811</v>
       </c>
       <c r="AB3" t="n">
-        <v>527.4858767624548</v>
+        <v>737.2095823170703</v>
       </c>
       <c r="AC3" t="n">
-        <v>477.1433650153233</v>
+        <v>666.8513344608755</v>
       </c>
       <c r="AD3" t="n">
-        <v>385520.2958685583</v>
+        <v>538799.7457607811</v>
       </c>
       <c r="AE3" t="n">
-        <v>527485.8767624549</v>
+        <v>737209.5823170702</v>
       </c>
       <c r="AF3" t="n">
         <v>6.152187962098027e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.36458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>477143.3650153233</v>
+        <v>666851.3344608755</v>
       </c>
     </row>
     <row r="4">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>353.3878357019721</v>
+        <v>497.180327037087</v>
       </c>
       <c r="AB4" t="n">
-        <v>483.5208271784371</v>
+        <v>680.2640575001446</v>
       </c>
       <c r="AC4" t="n">
-        <v>437.3742780582694</v>
+        <v>615.3406106089312</v>
       </c>
       <c r="AD4" t="n">
-        <v>353387.8357019721</v>
+        <v>497180.3270370869</v>
       </c>
       <c r="AE4" t="n">
-        <v>483520.8271784371</v>
+        <v>680264.0575001447</v>
       </c>
       <c r="AF4" t="n">
         <v>6.520834499385848e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.64583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>437374.2780582694</v>
+        <v>615340.6106089313</v>
       </c>
     </row>
     <row r="5">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>352.1823794787736</v>
+        <v>495.9748708138885</v>
       </c>
       <c r="AB5" t="n">
-        <v>481.8714687928816</v>
+        <v>678.6146991145893</v>
       </c>
       <c r="AC5" t="n">
-        <v>435.8823321221424</v>
+        <v>613.8486646728041</v>
       </c>
       <c r="AD5" t="n">
-        <v>352182.3794787736</v>
+        <v>495974.8708138884</v>
       </c>
       <c r="AE5" t="n">
-        <v>481871.4687928816</v>
+        <v>678614.6991145893</v>
       </c>
       <c r="AF5" t="n">
         <v>6.547079321919859e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>435882.3321221424</v>
+        <v>613848.6646728042</v>
       </c>
     </row>
   </sheetData>
@@ -7204,28 +7204,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>502.7441341664861</v>
+        <v>686.0133671751697</v>
       </c>
       <c r="AB2" t="n">
-        <v>687.8767038724357</v>
+        <v>938.6337537428471</v>
       </c>
       <c r="AC2" t="n">
-        <v>622.226716695867</v>
+        <v>849.0518656663767</v>
       </c>
       <c r="AD2" t="n">
-        <v>502744.1341664861</v>
+        <v>686013.3671751698</v>
       </c>
       <c r="AE2" t="n">
-        <v>687876.7038724356</v>
+        <v>938633.7537428471</v>
       </c>
       <c r="AF2" t="n">
         <v>4.728627373150209e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>622226.716695867</v>
+        <v>849051.8656663767</v>
       </c>
     </row>
     <row r="3">
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>409.5300178422814</v>
+        <v>563.8459795506752</v>
       </c>
       <c r="AB3" t="n">
-        <v>560.3370376010794</v>
+        <v>771.478944350254</v>
       </c>
       <c r="AC3" t="n">
-        <v>506.8592571704032</v>
+        <v>697.850076678964</v>
       </c>
       <c r="AD3" t="n">
-        <v>409530.0178422814</v>
+        <v>563845.9795506753</v>
       </c>
       <c r="AE3" t="n">
-        <v>560337.0376010793</v>
+        <v>771478.944350254</v>
       </c>
       <c r="AF3" t="n">
         <v>5.605557553313017e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>32</v>
+        <v>31.43229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>506859.2571704031</v>
+        <v>697850.076678964</v>
       </c>
     </row>
     <row r="4">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>376.9402311193575</v>
+        <v>521.7065876208068</v>
       </c>
       <c r="AB4" t="n">
-        <v>515.7462536468568</v>
+        <v>713.8219692530416</v>
       </c>
       <c r="AC4" t="n">
-        <v>466.5241550532132</v>
+        <v>645.6958023629568</v>
       </c>
       <c r="AD4" t="n">
-        <v>376940.2311193575</v>
+        <v>521706.5876208068</v>
       </c>
       <c r="AE4" t="n">
-        <v>515746.2536468568</v>
+        <v>713821.9692530417</v>
       </c>
       <c r="AF4" t="n">
         <v>5.968012100609392e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.53125</v>
       </c>
       <c r="AH4" t="n">
-        <v>466524.1550532132</v>
+        <v>645695.8023629568</v>
       </c>
     </row>
     <row r="5">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>359.7093254479986</v>
+        <v>504.4415165306669</v>
       </c>
       <c r="AB5" t="n">
-        <v>492.1701683333955</v>
+        <v>690.1991373063327</v>
       </c>
       <c r="AC5" t="n">
-        <v>445.1981382328252</v>
+        <v>624.3275003423887</v>
       </c>
       <c r="AD5" t="n">
-        <v>359709.3254479986</v>
+        <v>504441.5165306669</v>
       </c>
       <c r="AE5" t="n">
-        <v>492170.1683333955</v>
+        <v>690199.1373063327</v>
       </c>
       <c r="AF5" t="n">
         <v>6.119085592591746e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.80208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>445198.1382328251</v>
+        <v>624327.5003423888</v>
       </c>
     </row>
     <row r="6">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>358.8789408038996</v>
+        <v>503.6111318865679</v>
       </c>
       <c r="AB6" t="n">
-        <v>491.0339994293543</v>
+        <v>689.0629684022914</v>
       </c>
       <c r="AC6" t="n">
-        <v>444.1704036943626</v>
+        <v>623.2997658039261</v>
       </c>
       <c r="AD6" t="n">
-        <v>358878.9408038996</v>
+        <v>503611.1318865679</v>
       </c>
       <c r="AE6" t="n">
-        <v>491033.9994293543</v>
+        <v>689062.9684022914</v>
       </c>
       <c r="AF6" t="n">
         <v>6.150085439960885e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>29</v>
+        <v>28.671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>444170.4036943626</v>
+        <v>623299.7658039262</v>
       </c>
     </row>
   </sheetData>
@@ -7925,28 +7925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>588.2279325566003</v>
+        <v>802.9419712080049</v>
       </c>
       <c r="AB2" t="n">
-        <v>804.8394081088111</v>
+        <v>1098.620628306512</v>
       </c>
       <c r="AC2" t="n">
-        <v>728.0266645981094</v>
+        <v>993.7698174646735</v>
       </c>
       <c r="AD2" t="n">
-        <v>588227.9325566003</v>
+        <v>802941.971208005</v>
       </c>
       <c r="AE2" t="n">
-        <v>804839.4081088111</v>
+        <v>1098620.628306512</v>
       </c>
       <c r="AF2" t="n">
         <v>3.851623525645737e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.61458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>728026.6645981094</v>
+        <v>993769.8174646734</v>
       </c>
     </row>
     <row r="3">
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>456.1550822281225</v>
+        <v>622.0217916067475</v>
       </c>
       <c r="AB3" t="n">
-        <v>624.1315076464552</v>
+        <v>851.0776569410629</v>
       </c>
       <c r="AC3" t="n">
-        <v>564.5652725307494</v>
+        <v>769.8519998576007</v>
       </c>
       <c r="AD3" t="n">
-        <v>456155.0822281225</v>
+        <v>622021.7916067474</v>
       </c>
       <c r="AE3" t="n">
-        <v>624131.5076464552</v>
+        <v>851077.6569410629</v>
       </c>
       <c r="AF3" t="n">
         <v>4.796162851857241e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>34</v>
+        <v>33.41145833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>564565.2725307494</v>
+        <v>769851.9998576008</v>
       </c>
     </row>
     <row r="4">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>421.2806267462617</v>
+        <v>577.3845011481156</v>
       </c>
       <c r="AB4" t="n">
-        <v>576.4147391037832</v>
+        <v>790.0029468772909</v>
       </c>
       <c r="AC4" t="n">
-        <v>521.4025254068848</v>
+        <v>714.6061744034214</v>
       </c>
       <c r="AD4" t="n">
-        <v>421280.6267462617</v>
+        <v>577384.5011481156</v>
       </c>
       <c r="AE4" t="n">
-        <v>576414.7391037832</v>
+        <v>790002.946877291</v>
       </c>
       <c r="AF4" t="n">
         <v>5.143066162467655e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>31.14583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>521402.5254068848</v>
+        <v>714606.1744034213</v>
       </c>
     </row>
     <row r="5">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>390.8673537076583</v>
+        <v>547.0043824984357</v>
       </c>
       <c r="AB5" t="n">
-        <v>534.8019571934548</v>
+        <v>748.4355282645561</v>
       </c>
       <c r="AC5" t="n">
-        <v>483.7612089981718</v>
+        <v>677.0058918828475</v>
       </c>
       <c r="AD5" t="n">
-        <v>390867.3537076582</v>
+        <v>547004.3824984357</v>
       </c>
       <c r="AE5" t="n">
-        <v>534801.9571934547</v>
+        <v>748435.5282645561</v>
       </c>
       <c r="AF5" t="n">
         <v>5.381185320336101e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>483761.2089981717</v>
+        <v>677005.8918828475</v>
       </c>
     </row>
     <row r="6">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>386.2587029060201</v>
+        <v>532.5997423311027</v>
       </c>
       <c r="AB6" t="n">
-        <v>528.4961978473295</v>
+        <v>728.7264640997375</v>
       </c>
       <c r="AC6" t="n">
-        <v>478.057262473852</v>
+        <v>659.1778331400739</v>
       </c>
       <c r="AD6" t="n">
-        <v>386258.7029060201</v>
+        <v>532599.7423311027</v>
       </c>
       <c r="AE6" t="n">
-        <v>528496.1978473295</v>
+        <v>728726.4640997376</v>
       </c>
       <c r="AF6" t="n">
         <v>5.455574483608182e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.375</v>
       </c>
       <c r="AH6" t="n">
-        <v>478057.262473852</v>
+        <v>659177.8331400738</v>
       </c>
     </row>
     <row r="7">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>382.0953386666987</v>
+        <v>528.4363780917814</v>
       </c>
       <c r="AB7" t="n">
-        <v>522.7996992204229</v>
+        <v>723.0299654728309</v>
       </c>
       <c r="AC7" t="n">
-        <v>472.9044296808112</v>
+        <v>654.025000347033</v>
       </c>
       <c r="AD7" t="n">
-        <v>382095.3386666987</v>
+        <v>528436.3780917814</v>
       </c>
       <c r="AE7" t="n">
-        <v>522799.6992204229</v>
+        <v>723029.9654728309</v>
       </c>
       <c r="AF7" t="n">
         <v>5.506520908082361e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>30</v>
+        <v>29.08854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>472904.4296808112</v>
+        <v>654025.000347033</v>
       </c>
     </row>
     <row r="8">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>382.2809772131001</v>
+        <v>528.6220166381828</v>
       </c>
       <c r="AB8" t="n">
-        <v>523.053698069404</v>
+        <v>723.2839643218119</v>
       </c>
       <c r="AC8" t="n">
-        <v>473.1341872361351</v>
+        <v>654.254757902357</v>
       </c>
       <c r="AD8" t="n">
-        <v>382280.9772131001</v>
+        <v>528622.0166381828</v>
       </c>
       <c r="AE8" t="n">
-        <v>523053.698069404</v>
+        <v>723283.9643218119</v>
       </c>
       <c r="AF8" t="n">
         <v>5.506705496576833e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>30</v>
+        <v>29.08854166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>473134.1872361351</v>
+        <v>654254.757902357</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>424.2126840520606</v>
+        <v>586.0482978685636</v>
       </c>
       <c r="AB2" t="n">
-        <v>580.4265092628161</v>
+        <v>801.8571357699436</v>
       </c>
       <c r="AC2" t="n">
-        <v>525.0314178524944</v>
+        <v>725.3290161456177</v>
       </c>
       <c r="AD2" t="n">
-        <v>424212.6840520606</v>
+        <v>586048.2978685637</v>
       </c>
       <c r="AE2" t="n">
-        <v>580426.5092628162</v>
+        <v>801857.1357699436</v>
       </c>
       <c r="AF2" t="n">
         <v>5.951665606452761e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.56770833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>525031.4178524944</v>
+        <v>725329.0161456177</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>361.7422721951937</v>
+        <v>504.4369168067995</v>
       </c>
       <c r="AB3" t="n">
-        <v>494.9517357601886</v>
+        <v>690.1928437612117</v>
       </c>
       <c r="AC3" t="n">
-        <v>447.7142367683596</v>
+        <v>624.3218074443811</v>
       </c>
       <c r="AD3" t="n">
-        <v>361742.2721951937</v>
+        <v>504436.9168067995</v>
       </c>
       <c r="AE3" t="n">
-        <v>494951.7357601885</v>
+        <v>690192.8437612117</v>
       </c>
       <c r="AF3" t="n">
         <v>6.799646213473358e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>447714.2367683596</v>
+        <v>624321.8074443811</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>345.7446733770403</v>
+        <v>488.5066377963504</v>
       </c>
       <c r="AB4" t="n">
-        <v>473.0631152929416</v>
+        <v>668.3963332248062</v>
       </c>
       <c r="AC4" t="n">
-        <v>427.9146355176347</v>
+        <v>604.6055252819754</v>
       </c>
       <c r="AD4" t="n">
-        <v>345744.6733770403</v>
+        <v>488506.6377963504</v>
       </c>
       <c r="AE4" t="n">
-        <v>473063.1152929416</v>
+        <v>668396.3332248062</v>
       </c>
       <c r="AF4" t="n">
         <v>6.9947853056724e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.56770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>427914.6355176347</v>
+        <v>604605.5252819754</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.6632473713283</v>
+        <v>517.0440158508966</v>
       </c>
       <c r="AB2" t="n">
-        <v>501.6848310942787</v>
+        <v>707.4424328593016</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.8047349337228</v>
+        <v>639.9251199688995</v>
       </c>
       <c r="AD2" t="n">
-        <v>366663.2473713284</v>
+        <v>517044.0158508965</v>
       </c>
       <c r="AE2" t="n">
-        <v>501684.8310942787</v>
+        <v>707442.4328593016</v>
       </c>
       <c r="AF2" t="n">
         <v>7.349471814363573e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.91145833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>453804.7349337228</v>
+        <v>639925.1199688995</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>334.4601290862719</v>
+        <v>475.4399641971933</v>
       </c>
       <c r="AB3" t="n">
-        <v>457.6231039553539</v>
+        <v>650.5179339454849</v>
       </c>
       <c r="AC3" t="n">
-        <v>413.9481971919145</v>
+        <v>588.4334153373816</v>
       </c>
       <c r="AD3" t="n">
-        <v>334460.1290862719</v>
+        <v>475439.9641971933</v>
       </c>
       <c r="AE3" t="n">
-        <v>457623.103955354</v>
+        <v>650517.9339454848</v>
       </c>
       <c r="AF3" t="n">
         <v>7.930441525693153e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.64583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>413948.1971919145</v>
+        <v>588433.4153373815</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.4195804603258</v>
+        <v>476.9076064986251</v>
       </c>
       <c r="AB2" t="n">
-        <v>461.6723558871145</v>
+        <v>652.5260268901123</v>
       </c>
       <c r="AC2" t="n">
-        <v>417.6109942024685</v>
+        <v>590.24985870975</v>
       </c>
       <c r="AD2" t="n">
-        <v>337419.5804603258</v>
+        <v>476907.6064986251</v>
       </c>
       <c r="AE2" t="n">
-        <v>461672.3558871145</v>
+        <v>652526.0268901123</v>
       </c>
       <c r="AF2" t="n">
         <v>8.735887515386028e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.19270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>417610.9942024685</v>
+        <v>590249.85870975</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>326.5896631410222</v>
+        <v>466.145008987026</v>
       </c>
       <c r="AB3" t="n">
-        <v>446.8543852286114</v>
+        <v>637.8001661624508</v>
       </c>
       <c r="AC3" t="n">
-        <v>404.2072298664605</v>
+        <v>576.9294134620612</v>
       </c>
       <c r="AD3" t="n">
-        <v>326589.6631410222</v>
+        <v>466145.008987026</v>
       </c>
       <c r="AE3" t="n">
-        <v>446854.3852286114</v>
+        <v>637800.1661624508</v>
       </c>
       <c r="AF3" t="n">
         <v>8.814542435158808e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.93229166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>404207.2298664605</v>
+        <v>576929.4134620612</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.1915456235582</v>
+        <v>476.0408274398006</v>
       </c>
       <c r="AB2" t="n">
-        <v>451.7826397450575</v>
+        <v>651.3400615422355</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.6651386887057</v>
+        <v>589.1770802301618</v>
       </c>
       <c r="AD2" t="n">
-        <v>330191.5456235582</v>
+        <v>476040.8274398006</v>
       </c>
       <c r="AE2" t="n">
-        <v>451782.6397450574</v>
+        <v>651340.0615422355</v>
       </c>
       <c r="AF2" t="n">
         <v>1.092116438044395e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.88541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>408665.1386887057</v>
+        <v>589177.0802301618</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>483.5528092468201</v>
+        <v>666.2054272536808</v>
       </c>
       <c r="AB2" t="n">
-        <v>661.6182864558475</v>
+        <v>911.5316564776307</v>
       </c>
       <c r="AC2" t="n">
-        <v>598.4743657835978</v>
+        <v>824.53635452612</v>
       </c>
       <c r="AD2" t="n">
-        <v>483552.80924682</v>
+        <v>666205.4272536808</v>
       </c>
       <c r="AE2" t="n">
-        <v>661618.2864558476</v>
+        <v>911531.6564776307</v>
       </c>
       <c r="AF2" t="n">
         <v>4.97349318494154e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.43229166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>598474.3657835978</v>
+        <v>824536.35452612</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>392.3668626014655</v>
+        <v>546.2596602581598</v>
       </c>
       <c r="AB3" t="n">
-        <v>536.8536514156252</v>
+        <v>747.4165664405842</v>
       </c>
       <c r="AC3" t="n">
-        <v>485.6170924033493</v>
+        <v>676.0841783452335</v>
       </c>
       <c r="AD3" t="n">
-        <v>392366.8626014655</v>
+        <v>546259.6602581597</v>
       </c>
       <c r="AE3" t="n">
-        <v>536853.6514156252</v>
+        <v>747416.5664405843</v>
       </c>
       <c r="AF3" t="n">
         <v>5.871760491632281e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>485617.0924033492</v>
+        <v>676084.1783452334</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.2637865996982</v>
+        <v>514.4688292564708</v>
       </c>
       <c r="AB4" t="n">
-        <v>506.6112477111145</v>
+        <v>703.9189489515938</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.2609812629167</v>
+        <v>636.7379124201028</v>
       </c>
       <c r="AD4" t="n">
-        <v>370263.7865996982</v>
+        <v>514468.8292564708</v>
       </c>
       <c r="AE4" t="n">
-        <v>506611.2477111145</v>
+        <v>703918.9489515938</v>
       </c>
       <c r="AF4" t="n">
         <v>6.221129196954007e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>30</v>
+        <v>29.140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>458260.9812629168</v>
+        <v>636737.9124201029</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>355.3794971580998</v>
+        <v>499.6518596225769</v>
       </c>
       <c r="AB5" t="n">
-        <v>486.2459062486133</v>
+        <v>683.6457174199343</v>
       </c>
       <c r="AC5" t="n">
-        <v>439.8392794066605</v>
+        <v>618.3995296521657</v>
       </c>
       <c r="AD5" t="n">
-        <v>355379.4971580998</v>
+        <v>499651.8596225769</v>
       </c>
       <c r="AE5" t="n">
-        <v>486245.9062486133</v>
+        <v>683645.7174199342</v>
       </c>
       <c r="AF5" t="n">
         <v>6.33791021040617e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.59375</v>
       </c>
       <c r="AH5" t="n">
-        <v>439839.2794066605</v>
+        <v>618399.5296521657</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>566.1220031893905</v>
+        <v>770.4492571962829</v>
       </c>
       <c r="AB2" t="n">
-        <v>774.5931003038206</v>
+        <v>1054.162663518301</v>
       </c>
       <c r="AC2" t="n">
-        <v>700.6670219590676</v>
+        <v>953.5548584387044</v>
       </c>
       <c r="AD2" t="n">
-        <v>566122.0031893905</v>
+        <v>770449.257196283</v>
       </c>
       <c r="AE2" t="n">
-        <v>774593.1003038206</v>
+        <v>1054162.663518301</v>
       </c>
       <c r="AF2" t="n">
         <v>4.046848486571773e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.46875</v>
       </c>
       <c r="AH2" t="n">
-        <v>700667.0219590676</v>
+        <v>953554.8584387044</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>439.9359886519036</v>
+        <v>605.4194127134415</v>
       </c>
       <c r="AB3" t="n">
-        <v>601.9398282795639</v>
+        <v>828.3615496939782</v>
       </c>
       <c r="AC3" t="n">
-        <v>544.4915358964167</v>
+        <v>749.3038860039212</v>
       </c>
       <c r="AD3" t="n">
-        <v>439935.9886519036</v>
+        <v>605419.4127134415</v>
       </c>
       <c r="AE3" t="n">
-        <v>601939.8282795639</v>
+        <v>828361.5496939782</v>
       </c>
       <c r="AF3" t="n">
         <v>4.966243763698813e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>33</v>
+        <v>32.96875</v>
       </c>
       <c r="AH3" t="n">
-        <v>544491.5358964168</v>
+        <v>749303.8860039212</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>405.5915435852464</v>
+        <v>561.3386388538245</v>
       </c>
       <c r="AB4" t="n">
-        <v>554.9482433693828</v>
+        <v>768.0482901927579</v>
       </c>
       <c r="AC4" t="n">
-        <v>501.9847618969595</v>
+        <v>694.746839339306</v>
       </c>
       <c r="AD4" t="n">
-        <v>405591.5435852464</v>
+        <v>561338.6388538245</v>
       </c>
       <c r="AE4" t="n">
-        <v>554948.2433693828</v>
+        <v>768048.290192758</v>
       </c>
       <c r="AF4" t="n">
         <v>5.321424647776345e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>31</v>
+        <v>30.78125</v>
       </c>
       <c r="AH4" t="n">
-        <v>501984.7618969595</v>
+        <v>694746.839339306</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>388.0997797880797</v>
+        <v>543.8127096378769</v>
       </c>
       <c r="AB5" t="n">
-        <v>531.0152404599432</v>
+        <v>744.0685406500705</v>
       </c>
       <c r="AC5" t="n">
-        <v>480.3358911950162</v>
+        <v>673.0556834371828</v>
       </c>
       <c r="AD5" t="n">
-        <v>388099.7797880797</v>
+        <v>543812.7096378768</v>
       </c>
       <c r="AE5" t="n">
-        <v>531015.2404599432</v>
+        <v>744068.5406500705</v>
       </c>
       <c r="AF5" t="n">
         <v>5.483167784080774e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29.86979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>480335.8911950162</v>
+        <v>673055.6834371828</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>380.1040516675899</v>
+        <v>516.3795003801052</v>
       </c>
       <c r="AB6" t="n">
-        <v>520.0751324988599</v>
+        <v>706.5332134758113</v>
       </c>
       <c r="AC6" t="n">
-        <v>470.4398917832009</v>
+        <v>639.1026752072723</v>
       </c>
       <c r="AD6" t="n">
-        <v>380104.0516675899</v>
+        <v>516379.5003801052</v>
       </c>
       <c r="AE6" t="n">
-        <v>520075.13249886</v>
+        <v>706533.2134758113</v>
       </c>
       <c r="AF6" t="n">
         <v>5.641703727558015e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>30</v>
+        <v>29.03645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>470439.8917832009</v>
+        <v>639102.6752072723</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>368.6721776045055</v>
+        <v>514.6829440801235</v>
       </c>
       <c r="AB7" t="n">
-        <v>504.4335380670586</v>
+        <v>704.211910299395</v>
       </c>
       <c r="AC7" t="n">
-        <v>456.291109170855</v>
+        <v>637.0029139480436</v>
       </c>
       <c r="AD7" t="n">
-        <v>368672.1776045055</v>
+        <v>514682.9440801236</v>
       </c>
       <c r="AE7" t="n">
-        <v>504433.5380670586</v>
+        <v>704211.910299395</v>
       </c>
       <c r="AF7" t="n">
         <v>5.66075822611954e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>29</v>
+        <v>28.93229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>456291.109170855</v>
+        <v>637002.9139480436</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>351.4548228892931</v>
+        <v>504.8577167443393</v>
       </c>
       <c r="AB2" t="n">
-        <v>480.8759937696231</v>
+        <v>690.7686008001371</v>
       </c>
       <c r="AC2" t="n">
-        <v>434.9818638379456</v>
+        <v>624.8426150395914</v>
       </c>
       <c r="AD2" t="n">
-        <v>351454.8228892931</v>
+        <v>504857.7167443393</v>
       </c>
       <c r="AE2" t="n">
-        <v>480875.993769623</v>
+        <v>690768.600800137</v>
       </c>
       <c r="AF2" t="n">
         <v>1.187305844482604e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.46354166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>434981.8638379456</v>
+        <v>624842.6150395913</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.7473751359714</v>
+        <v>546.2118779271568</v>
       </c>
       <c r="AB2" t="n">
-        <v>527.7965766341597</v>
+        <v>747.3511885472983</v>
       </c>
       <c r="AC2" t="n">
-        <v>477.4244121273426</v>
+        <v>676.0250400263243</v>
       </c>
       <c r="AD2" t="n">
-        <v>385747.3751359714</v>
+        <v>546211.8779271569</v>
       </c>
       <c r="AE2" t="n">
-        <v>527796.5766341597</v>
+        <v>747351.1885472983</v>
       </c>
       <c r="AF2" t="n">
         <v>6.818830107340681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>477424.4121273426</v>
+        <v>676025.0400263243</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>338.2177650486456</v>
+        <v>479.8302175375827</v>
       </c>
       <c r="AB3" t="n">
-        <v>462.7644672542723</v>
+        <v>656.5248722501134</v>
       </c>
       <c r="AC3" t="n">
-        <v>418.5988759935329</v>
+        <v>593.8670598810073</v>
       </c>
       <c r="AD3" t="n">
-        <v>338217.7650486456</v>
+        <v>479830.2175375827</v>
       </c>
       <c r="AE3" t="n">
-        <v>462764.4672542724</v>
+        <v>656524.8722501134</v>
       </c>
       <c r="AF3" t="n">
         <v>7.595496719635119e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>418598.8759935329</v>
+        <v>593867.0598810073</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>338.5450119311146</v>
+        <v>480.1574644200517</v>
       </c>
       <c r="AB4" t="n">
-        <v>463.21222087598</v>
+        <v>656.972625871821</v>
       </c>
       <c r="AC4" t="n">
-        <v>419.0038966380109</v>
+        <v>594.2720805254853</v>
       </c>
       <c r="AD4" t="n">
-        <v>338545.0119311146</v>
+        <v>480157.4644200517</v>
       </c>
       <c r="AE4" t="n">
-        <v>463212.22087598</v>
+        <v>656972.6258718211</v>
       </c>
       <c r="AF4" t="n">
         <v>7.587428968361553e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.54166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>419003.8966380109</v>
+        <v>594272.0805254853</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>443.4413321785639</v>
+        <v>615.2947446174974</v>
       </c>
       <c r="AB2" t="n">
-        <v>606.7359939375829</v>
+        <v>841.873414474003</v>
       </c>
       <c r="AC2" t="n">
-        <v>548.8299622354949</v>
+        <v>761.5261973733617</v>
       </c>
       <c r="AD2" t="n">
-        <v>443441.3321785639</v>
+        <v>615294.7446174973</v>
       </c>
       <c r="AE2" t="n">
-        <v>606735.9939375828</v>
+        <v>841873.414474003</v>
       </c>
       <c r="AF2" t="n">
         <v>5.600945537187089e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.42708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>548829.9622354949</v>
+        <v>761526.1973733617</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>368.8972248035116</v>
+        <v>521.7080611519051</v>
       </c>
       <c r="AB3" t="n">
-        <v>504.7414575731206</v>
+        <v>713.8239854032979</v>
       </c>
       <c r="AC3" t="n">
-        <v>456.569641271426</v>
+        <v>645.6976260946624</v>
       </c>
       <c r="AD3" t="n">
-        <v>368897.2248035116</v>
+        <v>521708.061151905</v>
       </c>
       <c r="AE3" t="n">
-        <v>504741.4575731205</v>
+        <v>713823.9854032979</v>
       </c>
       <c r="AF3" t="n">
         <v>6.459080276623888e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.86979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>456569.641271426</v>
+        <v>645697.6260946624</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>349.1248768942366</v>
+        <v>492.4149307122887</v>
       </c>
       <c r="AB4" t="n">
-        <v>477.6880588692242</v>
+        <v>673.7438320141075</v>
       </c>
       <c r="AC4" t="n">
-        <v>432.098180970146</v>
+        <v>609.4426662920877</v>
       </c>
       <c r="AD4" t="n">
-        <v>349124.8768942367</v>
+        <v>492414.9307122887</v>
       </c>
       <c r="AE4" t="n">
-        <v>477688.0588692242</v>
+        <v>673743.8320141075</v>
       </c>
       <c r="AF4" t="n">
         <v>6.753395237745994e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.56770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>432098.180970146</v>
+        <v>609442.6662920876</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.2677462021662</v>
+        <v>492.5578000202182</v>
       </c>
       <c r="AB5" t="n">
-        <v>477.8835389592825</v>
+        <v>673.9393121041657</v>
       </c>
       <c r="AC5" t="n">
-        <v>432.2750047147671</v>
+        <v>609.6194900367086</v>
       </c>
       <c r="AD5" t="n">
-        <v>349267.7462021662</v>
+        <v>492557.8000202182</v>
       </c>
       <c r="AE5" t="n">
-        <v>477883.5389592825</v>
+        <v>673939.3121041657</v>
       </c>
       <c r="AF5" t="n">
         <v>6.744804262534579e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28.59375</v>
       </c>
       <c r="AH5" t="n">
-        <v>432275.0047147671</v>
+        <v>609619.4900367087</v>
       </c>
     </row>
   </sheetData>
